--- a/resources/excel_tables/monster.xlsx
+++ b/resources/excel_tables/monster.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="600" autoFilterDateGrouping="true"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>野狼</t>
+  </si>
+  <si>
+    <t>[1002,1003]</t>
+  </si>
+  <si>
+    <t>野猪</t>
+  </si>
+  <si>
+    <t>[1003,1004]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -47,12 +64,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="false" pivotButton="false"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="false"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -125,7 +142,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -408,9 +425,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="true" summaryRight="true"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K2"/>
@@ -535,6 +552,76 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>120</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>0.15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>35</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
